--- a/design/W_玩家相关.xlsx
+++ b/design/W_玩家相关.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>output</t>
   </si>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>[2, 4, 6, 8, 10, 11, 12, 13, 14, 15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surrender_phase(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以投降的阶段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -244,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -548,7 +559,7 @@
     <col min="13" max="13" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -569,7 +580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -580,7 +591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,21 +602,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -636,8 +647,11 @@
       <c r="K8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -671,8 +685,11 @@
       <c r="K9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -706,8 +723,11 @@
       <c r="K10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -740,6 +760,9 @@
       </c>
       <c r="K11" t="s">
         <v>33</v>
+      </c>
+      <c r="L11" s="5">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
